--- a/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/Documents/dev/personal-dev/moneyAllocation/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C385C46E-F764-E445-9047-30FE9F6644AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD11AD-3E59-8644-A587-3179137CC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1440" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24580" yWindow="1640" windowWidth="23280" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>三井</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>EMAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PayPay</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1259,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4EB26E-CA71-5346-AF56-47AC8ABCF5DB}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1332,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0E107-AE2E-2D42-AB9F-FAD47DEB0DE0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1414,6 +1418,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
@@ -5,23 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/Documents/dev/personal-dev/moneyAllocation/src/test/java/com/example/moneyAllocation/repository/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD11AD-3E59-8644-A587-3179137CC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0934A-3309-1641-BFB5-B77BCD5E1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24580" yWindow="1640" windowWidth="23280" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20680" yWindow="0" windowWidth="17720" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
     <sheet name="ACCOUNT" sheetId="2" r:id="rId2"/>
+    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId3"/>
+    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>三井</t>
   </si>
@@ -85,6 +87,77 @@
   </si>
   <si>
     <t>PayPay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FROM_ACCOUNT</t>
+  </si>
+  <si>
+    <t>FROM_ACCOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TO_ACCOUNT</t>
+  </si>
+  <si>
+    <t>TO_ACCOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RATIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc1</t>
+  </si>
+  <si>
+    <t>desc1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc2</t>
+  </si>
+  <si>
+    <t>desc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc3</t>
+  </si>
+  <si>
+    <t>desc3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -92,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -103,6 +176,13 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ヒラギノ角ゴ pron w3"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,8 +207,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0E107-AE2E-2D42-AB9F-FAD47DEB0DE0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1435,6 +1518,238 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF894ACD-80B4-5044-80FF-B87D40DD1943}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>30000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>25000</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0934A-3309-1641-BFB5-B77BCD5E1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B10F41-88F9-214A-B66B-4C8262BA3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="0" windowWidth="17720" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="7700" windowWidth="17720" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>三井</t>
   </si>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>desc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうちょ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1350,12 +1354,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1419,21 +1423,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0E107-AE2E-2D42-AB9F-FAD47DEB0DE0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1532,6 +1536,23 @@
         <v>120</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
@@ -1546,16 +1567,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1604,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1627,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1660,17 +1681,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6" ht="28">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1730,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6" ht="14">
       <c r="A4" s="1">
         <v>3</v>
       </c>

--- a/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B10F41-88F9-214A-B66B-4C8262BA3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287EE85C-C7DD-0A48-AA82-115C1416F9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="7700" windowWidth="17720" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="4100" windowWidth="32020" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
     <sheet name="ACCOUNT" sheetId="2" r:id="rId2"/>
-    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId3"/>
-    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId4"/>
+    <sheet name="TRANSFER" sheetId="6" r:id="rId3"/>
+    <sheet name="REGULAR_TRANSFER" sheetId="4" r:id="rId4"/>
+    <sheet name="TEMPORARY_TRANSFER" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>三井</t>
   </si>
@@ -162,6 +163,26 @@
   </si>
   <si>
     <t>ゆうちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRANSFER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -211,11 +232,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1425,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0E107-AE2E-2D42-AB9F-FAD47DEB0DE0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1563,6 +1587,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878808B8-F24F-F446-81D9-2DE8ED8CDE24}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF894ACD-80B4-5044-80FF-B87D40DD1943}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1677,21 +1764,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
+    <row r="1" spans="1:7" ht="28">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,8 +1798,11 @@
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1730,8 +1821,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1750,8 +1844,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1769,6 +1866,9 @@
       </c>
       <c r="F4" s="1">
         <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287EE85C-C7DD-0A48-AA82-115C1416F9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5645C83A-64E5-2341-A872-82E6252EF305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="4100" windowWidth="32020" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="4100" windowWidth="32020" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>三井</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>TRANSFER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>via</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1447,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D0E107-AE2E-2D42-AB9F-FAD47DEB0DE0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1461,7 +1465,7 @@
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28">
+    <row r="1" spans="1:6" ht="28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1477,8 +1481,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1511,8 +1518,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:6" ht="28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1562,8 +1572,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28">
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1768,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0F55B-F18D-7B44-BBD4-71855BD07ACD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
